--- a/biology/Médecine/Edvard_Moser/Edvard_Moser.xlsx
+++ b/biology/Médecine/Edvard_Moser/Edvard_Moser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edvard Ingjald Moser (né le 27 avril 1962 à Ålesund (Norvège)) est un neuroscientifique norvégien. Il travaille avec son épouse May-Britt Moser à l'Université norvégienne de sciences et de technologie.
-Il est co-lauréat du prix Nobel de physiologie ou de médecine 2014[1] avec May-Britt Moser et John O'Keefe[2].
+Il est co-lauréat du prix Nobel de physiologie ou de médecine 2014 avec May-Britt Moser et John O'Keefe.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1999 : Prize for young scientists de l'Académie norvégienne des sciences et des lettres
 2005 : 28e W. Alden Spencer Award (College of Physicians and Surgeons de l'université Columbia)
@@ -520,12 +534,12 @@
 2006 : 10e Prix Liliane-Bettencourt pour les sciences du vivant 2006 (Fondation Bettencourt, Paris)
 2008 : 30e Eric K. Fernström’s Great Nordic Prize (Fernström Foundation, université de Lund)
 2011 : Prix Louis-Jeantet de médecine
-2011 : Anders Jahre Award[3] (avec May-Britt Moser)
-2012 :  Perl-UNC Neuroscience Prize (avec May-Britt Moser)[4]
-2013 :  Prix Louisa Gross Horwitz (avec May-Britt Moser et John O'Keefe)[5]
-2014 :  Karl Spencer Lashley Award (avec May-Britt Moser)[6]
-2014 : Foreign associate de l'Académie nationale des sciences des États-Unis[7].
-2014 : Prix Nobel de physiologie ou de médecine (avec May-Britt Moser et John O'Keefe)[8].
+2011 : Anders Jahre Award (avec May-Britt Moser)
+2012 :  Perl-UNC Neuroscience Prize (avec May-Britt Moser)
+2013 :  Prix Louisa Gross Horwitz (avec May-Britt Moser et John O'Keefe)
+2014 :  Karl Spencer Lashley Award (avec May-Britt Moser)
+2014 : Foreign associate de l'Académie nationale des sciences des États-Unis.
+2014 : Prix Nobel de physiologie ou de médecine (avec May-Britt Moser et John O'Keefe).
 2017 : Conférence Lars Onsager (avec May-Britt Moser).</t>
         </is>
       </c>
